--- a/src/test/java/dataEngine/Configuration - Meters.xlsx
+++ b/src/test/java/dataEngine/Configuration - Meters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>maxadmin</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -321,8 +321,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -620,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +698,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -689,109 +717,109 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="8" t="b">
         <v>1</v>
@@ -800,199 +828,199 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1001,19 +1029,19 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1022,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="8">
         <v>1</v>
@@ -1031,178 +1059,178 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1211,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
